--- a/projects/test_building/input/Scenario_Construction_MandatoryRenwableHeating.xlsx
+++ b/projects/test_building/input/Scenario_Construction_MandatoryRenwableHeating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119E39E-61EF-2B40-8A8D-1CC89402C449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A50A28-7D51-184B-A2E7-6C9EEAB4D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-19360" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>2020</t>
-  </si>
-  <si>
-    <t>fraction</t>
   </si>
   <si>
     <t>2021</t>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>2050</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,94 +676,94 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5540,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5960,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -6800,7 +6800,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -7080,7 +7080,7 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>0</v>

--- a/projects/test_building/input/Scenario_Construction_MandatoryRenwableHeating.xlsx
+++ b/projects/test_building/input/Scenario_Construction_MandatoryRenwableHeating.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A50A28-7D51-184B-A2E7-6C9EEAB4D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-19360" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-19365" windowWidth="30240" windowHeight="17355" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
   <si>
     <t>id_region</t>
   </si>
@@ -178,11 +177,14 @@
   <si>
     <t>bool</t>
   </si>
+  <si>
+    <t>id_scenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,12 +244,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pivot Table Category" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Pivot Table Corner" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Pivot Table Field" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Pivot Table Result" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Pivot Table Title" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Pivot Table Value" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Pivot Table Category" xfId="4"/>
+    <cellStyle name="Pivot Table Corner" xfId="1"/>
+    <cellStyle name="Pivot Table Field" xfId="3"/>
+    <cellStyle name="Pivot Table Result" xfId="6"/>
+    <cellStyle name="Pivot Table Title" xfId="5"/>
+    <cellStyle name="Pivot Table Value" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,55 +265,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5722B960-3807-D044-A6C3-D1B642616C7D}" name="Table2" displayName="Table2" ref="A1:AT48" totalsRowShown="0">
-  <autoFilter ref="A1:AT48" xr:uid="{5722B960-3807-D044-A6C3-D1B642616C7D}"/>
-  <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{CC4C0C83-299D-0D4F-AAEA-FB89D6D38A1A}" name="id_region"/>
-    <tableColumn id="2" xr3:uid="{ED9C3A46-6B02-2340-961A-5E4A76F36A9D}" name="id_sector"/>
-    <tableColumn id="3" xr3:uid="{54838354-B725-D740-8D29-D16C55404662}" name="id_subsector"/>
-    <tableColumn id="4" xr3:uid="{1C73920F-1E22-8F4A-8931-1C7F60CE6644}" name="id_building_type"/>
-    <tableColumn id="5" xr3:uid="{116E74C7-FAD7-8C46-ADBE-1591E3E40705}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{4469DEC7-A17D-0743-A98F-AB854B433966}" name="2010"/>
-    <tableColumn id="7" xr3:uid="{AE419616-6ACE-0340-808C-46A969865DA1}" name="2011"/>
-    <tableColumn id="8" xr3:uid="{1139E4D3-D42E-B24B-9DE1-15FD7E176435}" name="2012"/>
-    <tableColumn id="9" xr3:uid="{9A2B43BF-B8D2-4A46-8514-94E02E7A023C}" name="2013"/>
-    <tableColumn id="10" xr3:uid="{92034B15-DDE1-2149-801B-5F6A11C5AE28}" name="2014"/>
-    <tableColumn id="11" xr3:uid="{73B2C852-5EC1-584B-8251-7C13AD13C1F9}" name="2015"/>
-    <tableColumn id="12" xr3:uid="{994CE7D3-9812-FB4A-B99A-8220F461018D}" name="2016"/>
-    <tableColumn id="13" xr3:uid="{1F037891-779A-C34F-BB70-C5EA613B6485}" name="2017"/>
-    <tableColumn id="14" xr3:uid="{BAF1717D-0789-E045-B477-FAFD122656DE}" name="2018"/>
-    <tableColumn id="15" xr3:uid="{5C0157D8-8B7A-4C45-AB25-958E19C9F754}" name="2019"/>
-    <tableColumn id="16" xr3:uid="{DF70998A-DC57-1049-AE32-F1D9B0ACA7EB}" name="2020"/>
-    <tableColumn id="17" xr3:uid="{7D501284-15C4-4143-A0C2-A66C468AC61D}" name="2021"/>
-    <tableColumn id="18" xr3:uid="{F9075841-DD19-724A-8272-5769DCB992EF}" name="2022"/>
-    <tableColumn id="19" xr3:uid="{77C28CA3-3076-8042-ACB1-6E31049913F2}" name="2023"/>
-    <tableColumn id="20" xr3:uid="{75CC7963-0143-6548-B757-97D90703A526}" name="2024"/>
-    <tableColumn id="21" xr3:uid="{5A1F685F-5D86-3547-876E-48522BAEAB4B}" name="2025"/>
-    <tableColumn id="22" xr3:uid="{4066C723-F216-0745-B807-50EE3B470014}" name="2026"/>
-    <tableColumn id="23" xr3:uid="{216386F0-D05A-8048-B56D-B0FC669F8074}" name="2027"/>
-    <tableColumn id="24" xr3:uid="{8A33951E-862D-8D4F-8192-061BA86DE1B7}" name="2028"/>
-    <tableColumn id="25" xr3:uid="{9607FFE7-6D54-9F45-B520-E85735967D19}" name="2029"/>
-    <tableColumn id="26" xr3:uid="{94E3E1E0-D530-E045-ADC8-FB5EFC369219}" name="2030"/>
-    <tableColumn id="27" xr3:uid="{AF0118C9-3129-CC43-B768-AAD7441D5D56}" name="2031"/>
-    <tableColumn id="28" xr3:uid="{0F653380-B424-0F41-BB0B-84293165BAF9}" name="2032"/>
-    <tableColumn id="29" xr3:uid="{F0F8AC96-81FF-5D46-BDA5-3A248AF2AABC}" name="2033"/>
-    <tableColumn id="30" xr3:uid="{B1DE03D0-BA58-A14D-B5AE-CB03FC405BE7}" name="2034"/>
-    <tableColumn id="31" xr3:uid="{0DC7EDE3-0691-0C49-B8DF-465AEFB11D38}" name="2035"/>
-    <tableColumn id="32" xr3:uid="{E7F11E55-1B55-964F-A768-C9A86B69FD5B}" name="2036"/>
-    <tableColumn id="33" xr3:uid="{42CE1480-0DD1-5346-90C3-902C7D9B406B}" name="2037"/>
-    <tableColumn id="34" xr3:uid="{99D98500-1BB9-8540-8E63-955041893BD6}" name="2038"/>
-    <tableColumn id="35" xr3:uid="{5D034ADD-2CA1-B243-A434-3AA875893C68}" name="2039"/>
-    <tableColumn id="36" xr3:uid="{114AA1AB-B8F1-9D41-BDDE-373F326FC22A}" name="2040"/>
-    <tableColumn id="37" xr3:uid="{44A180E6-6E75-6349-A3C3-BD72E039AA74}" name="2041"/>
-    <tableColumn id="38" xr3:uid="{54A83723-CF3E-0B4C-A9D1-61AED856C230}" name="2042"/>
-    <tableColumn id="39" xr3:uid="{490FC38E-287C-454A-819F-9DE17E809AD4}" name="2043"/>
-    <tableColumn id="40" xr3:uid="{60CF4DB9-99CF-A54E-BE7B-1BDA20394C62}" name="2044"/>
-    <tableColumn id="41" xr3:uid="{04E9E3CD-24B5-7E44-8C88-224B5CD37920}" name="2045"/>
-    <tableColumn id="42" xr3:uid="{45D8F357-BE38-414A-A2DE-F147F30EB83F}" name="2046"/>
-    <tableColumn id="43" xr3:uid="{EF5318D1-3A43-294C-8342-E21F3C7E5B37}" name="2047"/>
-    <tableColumn id="44" xr3:uid="{66B683B6-D6A8-8D4D-AD9D-F83B27AE6249}" name="2048"/>
-    <tableColumn id="45" xr3:uid="{120A8239-4508-0948-A15D-D960657A893E}" name="2049"/>
-    <tableColumn id="46" xr3:uid="{C07E555E-85AF-0845-8AD4-A6C0A425F4F8}" name="2050"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AU95" totalsRowShown="0">
+  <autoFilter ref="A1:AU95"/>
+  <tableColumns count="47">
+    <tableColumn id="47" name="id_scenario"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="2" name="id_sector"/>
+    <tableColumn id="3" name="id_subsector"/>
+    <tableColumn id="4" name="id_building_type"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="2010"/>
+    <tableColumn id="7" name="2011"/>
+    <tableColumn id="8" name="2012"/>
+    <tableColumn id="9" name="2013"/>
+    <tableColumn id="10" name="2014"/>
+    <tableColumn id="11" name="2015"/>
+    <tableColumn id="12" name="2016"/>
+    <tableColumn id="13" name="2017"/>
+    <tableColumn id="14" name="2018"/>
+    <tableColumn id="15" name="2019"/>
+    <tableColumn id="16" name="2020"/>
+    <tableColumn id="17" name="2021"/>
+    <tableColumn id="18" name="2022"/>
+    <tableColumn id="19" name="2023"/>
+    <tableColumn id="20" name="2024"/>
+    <tableColumn id="21" name="2025"/>
+    <tableColumn id="22" name="2026"/>
+    <tableColumn id="23" name="2027"/>
+    <tableColumn id="24" name="2028"/>
+    <tableColumn id="25" name="2029"/>
+    <tableColumn id="26" name="2030"/>
+    <tableColumn id="27" name="2031"/>
+    <tableColumn id="28" name="2032"/>
+    <tableColumn id="29" name="2033"/>
+    <tableColumn id="30" name="2034"/>
+    <tableColumn id="31" name="2035"/>
+    <tableColumn id="32" name="2036"/>
+    <tableColumn id="33" name="2037"/>
+    <tableColumn id="34" name="2038"/>
+    <tableColumn id="35" name="2039"/>
+    <tableColumn id="36" name="2040"/>
+    <tableColumn id="37" name="2041"/>
+    <tableColumn id="38" name="2042"/>
+    <tableColumn id="39" name="2043"/>
+    <tableColumn id="40" name="2044"/>
+    <tableColumn id="41" name="2045"/>
+    <tableColumn id="42" name="2046"/>
+    <tableColumn id="43" name="2047"/>
+    <tableColumn id="44" name="2048"/>
+    <tableColumn id="45" name="2049"/>
+    <tableColumn id="46" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,178 +616,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E1E79-4464-C44A-B6FF-D1BD282B0C42}">
-  <dimension ref="A1:AT48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>61</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -828,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -905,26 +911,29 @@
       <c r="AT2">
         <v>1</v>
       </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>61</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -1045,26 +1054,29 @@
       <c r="AT3">
         <v>1</v>
       </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>61</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -1185,26 +1197,29 @@
       <c r="AT4">
         <v>1</v>
       </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>61</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1325,26 +1340,29 @@
       <c r="AT5">
         <v>1</v>
       </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>61</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1465,26 +1483,29 @@
       <c r="AT6">
         <v>1</v>
       </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1528,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1605,26 +1626,29 @@
       <c r="AT7">
         <v>1</v>
       </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1668,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1745,26 +1769,29 @@
       <c r="AT8">
         <v>1</v>
       </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1808,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1885,26 +1912,29 @@
       <c r="AT9">
         <v>1</v>
       </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1948,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -2025,26 +2055,29 @@
       <c r="AT10">
         <v>1</v>
       </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -2088,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -2165,26 +2198,29 @@
       <c r="AT11">
         <v>1</v>
       </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>33</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -2228,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -2305,26 +2341,29 @@
       <c r="AT12">
         <v>1</v>
       </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>34</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -2368,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -2445,26 +2484,29 @@
       <c r="AT13">
         <v>1</v>
       </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>34</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -2508,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -2585,26 +2627,29 @@
       <c r="AT14">
         <v>1</v>
       </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -2648,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -2725,26 +2770,29 @@
       <c r="AT15">
         <v>1</v>
       </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>35</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2788,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -2865,26 +2913,29 @@
       <c r="AT16">
         <v>1</v>
       </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>35</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2928,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -3005,26 +3056,29 @@
       <c r="AT17">
         <v>1</v>
       </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>35</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -3068,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -3145,26 +3199,29 @@
       <c r="AT18">
         <v>1</v>
       </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>35</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -3208,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -3285,26 +3342,29 @@
       <c r="AT19">
         <v>1</v>
       </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>36</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -3348,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -3425,26 +3485,29 @@
       <c r="AT20">
         <v>1</v>
       </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>37</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>46</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -3488,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -3565,26 +3628,29 @@
       <c r="AT21">
         <v>1</v>
       </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>37</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>46</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -3628,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -3705,26 +3771,29 @@
       <c r="AT22">
         <v>1</v>
       </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>37</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -3768,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -3845,26 +3914,29 @@
       <c r="AT23">
         <v>1</v>
       </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>37</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>16</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>46</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -3908,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -3985,26 +4057,29 @@
       <c r="AT24">
         <v>1</v>
       </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>46</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -4048,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -4125,26 +4200,29 @@
       <c r="AT25">
         <v>1</v>
       </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>39</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>46</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -4188,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -4265,26 +4343,29 @@
       <c r="AT26">
         <v>1</v>
       </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>310</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -4328,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -4405,26 +4486,29 @@
       <c r="AT27">
         <v>1</v>
       </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>310</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>46</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
@@ -4468,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -4545,26 +4629,29 @@
       <c r="AT28">
         <v>1</v>
       </c>
+      <c r="AU28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>310</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>46</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -4608,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -4685,26 +4772,29 @@
       <c r="AT29">
         <v>1</v>
       </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>311</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>46</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -4748,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -4825,26 +4915,29 @@
       <c r="AT30">
         <v>1</v>
       </c>
+      <c r="AU30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>311</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>46</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -4888,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -4965,26 +5058,29 @@
       <c r="AT31">
         <v>1</v>
       </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>311</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>46</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
         <v>0</v>
       </c>
@@ -5028,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -5105,26 +5201,29 @@
       <c r="AT32">
         <v>1</v>
       </c>
+      <c r="AU32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>312</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>46</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
         <v>0</v>
       </c>
@@ -5168,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -5245,26 +5344,29 @@
       <c r="AT33">
         <v>1</v>
       </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>312</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>46</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -5308,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -5385,26 +5487,29 @@
       <c r="AT34">
         <v>1</v>
       </c>
+      <c r="AU34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>312</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>11</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>46</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -5448,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -5525,26 +5630,29 @@
       <c r="AT35">
         <v>1</v>
       </c>
+      <c r="AU35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>313</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>7</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>46</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="G36">
         <v>0</v>
       </c>
@@ -5588,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -5665,26 +5773,29 @@
       <c r="AT36">
         <v>1</v>
       </c>
+      <c r="AU36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>313</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>9</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>46</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
         <v>0</v>
       </c>
@@ -5728,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -5805,26 +5916,29 @@
       <c r="AT37">
         <v>1</v>
       </c>
+      <c r="AU37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>313</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>46</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -5868,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>1</v>
@@ -5945,26 +6059,29 @@
       <c r="AT38">
         <v>1</v>
       </c>
+      <c r="AU38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>313</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>11</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>46</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -6008,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -6085,26 +6202,29 @@
       <c r="AT39">
         <v>1</v>
       </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
         <v>9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>314</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>46</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -6148,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -6225,26 +6345,29 @@
       <c r="AT40">
         <v>1</v>
       </c>
+      <c r="AU40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>314</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>10</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>46</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -6288,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -6365,26 +6488,29 @@
       <c r="AT41">
         <v>1</v>
       </c>
+      <c r="AU41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>314</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>11</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>46</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
         <v>0</v>
       </c>
@@ -6428,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>1</v>
@@ -6505,26 +6631,29 @@
       <c r="AT42">
         <v>1</v>
       </c>
+      <c r="AU42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>315</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>46</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -6568,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -6645,26 +6774,29 @@
       <c r="AT43">
         <v>1</v>
       </c>
+      <c r="AU43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
         <v>9</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>315</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>11</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>46</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -6708,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>1</v>
@@ -6785,26 +6917,29 @@
       <c r="AT44">
         <v>1</v>
       </c>
+      <c r="AU44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
         <v>9</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>316</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -6848,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -6925,26 +7060,29 @@
       <c r="AT45">
         <v>1</v>
       </c>
+      <c r="AU45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>316</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>10</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>46</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -6988,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>1</v>
@@ -7065,26 +7203,29 @@
       <c r="AT46">
         <v>1</v>
       </c>
+      <c r="AU46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>316</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>11</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>46</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -7128,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -7205,26 +7346,29 @@
       <c r="AT47">
         <v>1</v>
       </c>
+      <c r="AU47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>316</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>15</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>46</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -7268,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -7344,6 +7488,6730 @@
       </c>
       <c r="AT48">
         <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>61</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>30</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>61</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>61</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>61</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>61</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>32</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>33</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>34</v>
+      </c>
+      <c r="E61">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>34</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>35</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>38</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>39</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>310</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>30</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>310</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>310</v>
+      </c>
+      <c r="E76">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>311</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>311</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>30</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>311</v>
+      </c>
+      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>312</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>312</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>312</v>
+      </c>
+      <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>313</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>313</v>
+      </c>
+      <c r="E84">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>30</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>313</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>30</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>313</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>30</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>314</v>
+      </c>
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>314</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>314</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>30</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>315</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>315</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>316</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>316</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>316</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>316</v>
+      </c>
+      <c r="E95">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
